--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="B2" t="n">
-        <v>256.8582449178542</v>
+        <v>220.6165345723236</v>
       </c>
       <c r="C2" t="n">
-        <v>205.6933285573812</v>
+        <v>154.6821417658566</v>
       </c>
       <c r="D2" t="n">
-        <v>308.0054024993897</v>
+        <v>279.9292955736029</v>
       </c>
       <c r="E2" t="n">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44998</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>218.3839182406346</v>
+        <v>139.2131682226214</v>
       </c>
       <c r="C3" t="n">
-        <v>160.537372052816</v>
+        <v>76.30417988570123</v>
       </c>
       <c r="D3" t="n">
-        <v>273.5715630808816</v>
+        <v>200.8034616298805</v>
       </c>
       <c r="E3" t="n">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45012</v>
@@ -513,19 +513,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45017</v>
+        <v>45019</v>
       </c>
       <c r="B4" t="n">
-        <v>138.3228218901064</v>
+        <v>225.0001095074794</v>
       </c>
       <c r="C4" t="n">
-        <v>82.24743677672609</v>
+        <v>159.0056693284037</v>
       </c>
       <c r="D4" t="n">
-        <v>195.0768920210691</v>
+        <v>285.8029744141031</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45012</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45019</v>
+        <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>241.4880899552464</v>
+        <v>262.7315569549783</v>
       </c>
       <c r="C5" t="n">
-        <v>187.356827148555</v>
+        <v>194.1339238717235</v>
       </c>
       <c r="D5" t="n">
-        <v>295.2149889357407</v>
+        <v>326.867447108323</v>
       </c>
       <c r="E5" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45012</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>260.5845155700508</v>
+        <v>220.2915922495201</v>
       </c>
       <c r="C6" t="n">
-        <v>208.1052167547323</v>
+        <v>159.177976730407</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7636774936998</v>
+        <v>287.4588367667216</v>
       </c>
       <c r="E6" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45026</v>
@@ -573,41 +573,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>234.187415000778</v>
+        <v>212.4978950628885</v>
       </c>
       <c r="C7" t="n">
-        <v>178.1726025038231</v>
+        <v>154.3600164111174</v>
       </c>
       <c r="D7" t="n">
-        <v>292.976082995911</v>
+        <v>277.3645920761315</v>
       </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B8" t="n">
-        <v>224.7204395520772</v>
-      </c>
-      <c r="C8" t="n">
-        <v>163.2537594678513</v>
-      </c>
-      <c r="D8" t="n">
-        <v>281.2222818123265</v>
-      </c>
-      <c r="E8" t="n">
-        <v>138</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -677,25 +657,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3792.652557997832</v>
+        <v>4061.711351905645</v>
       </c>
       <c r="C2" t="n">
-        <v>61.58451557005083</v>
+        <v>63.73155695497832</v>
       </c>
       <c r="D2" t="n">
-        <v>61.58451557005083</v>
+        <v>63.73155695497832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3094699274876926</v>
+        <v>0.3202590801757704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3094699274876926</v>
+        <v>0.3202590801757704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2680008289385633</v>
+        <v>0.2760545862417307</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -703,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>8720.556185973519</v>
+        <v>9142.521683620353</v>
       </c>
       <c r="C3" t="n">
-        <v>93.38391824063456</v>
+        <v>95.61653457232359</v>
       </c>
       <c r="D3" t="n">
-        <v>93.38391824063456</v>
+        <v>95.61653457232359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7470713459250764</v>
+        <v>0.7649322765785886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7470713459250764</v>
+        <v>0.7649322765785886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5439038538502174</v>
+        <v>0.5533099548645287</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -729,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>7451.62957907103</v>
+        <v>7606.136711427268</v>
       </c>
       <c r="C4" t="n">
-        <v>86.32282189010638</v>
+        <v>87.21316822262145</v>
       </c>
       <c r="D4" t="n">
-        <v>86.32282189010638</v>
+        <v>87.21316822262145</v>
       </c>
       <c r="E4" t="n">
-        <v>1.660054267117431</v>
+        <v>1.677176311973489</v>
       </c>
       <c r="F4" t="n">
-        <v>1.660054267117431</v>
+        <v>1.677176311973489</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9071200293567498</v>
+        <v>0.9122088089778715</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -755,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3676.258756798146</v>
+        <v>2594.975298226206</v>
       </c>
       <c r="C5" t="n">
-        <v>60.6321594271402</v>
+        <v>50.94090005316166</v>
       </c>
       <c r="D5" t="n">
-        <v>54.81950237886576</v>
+        <v>45.26312593497642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3219783234417679</v>
+        <v>0.2628628142754306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2786147764874799</v>
+        <v>0.1635683661431992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2661134932489713</v>
+        <v>0.2283117728162535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45016</v>
       </c>
       <c r="B2" t="n">
-        <v>220.6165345723236</v>
+        <v>219.9213734285613</v>
       </c>
       <c r="C2" t="n">
-        <v>154.6821417658566</v>
+        <v>154.1425710803382</v>
       </c>
       <c r="D2" t="n">
-        <v>279.9292955736029</v>
+        <v>278.9983017093778</v>
       </c>
       <c r="E2" t="n">
         <v>125</v>
@@ -496,13 +496,13 @@
         <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>139.2131682226214</v>
+        <v>159.2785718018915</v>
       </c>
       <c r="C3" t="n">
-        <v>76.30417988570123</v>
+        <v>101.9928850147078</v>
       </c>
       <c r="D3" t="n">
-        <v>200.8034616298805</v>
+        <v>219.0088677601562</v>
       </c>
       <c r="E3" t="n">
         <v>52</v>
@@ -516,13 +516,13 @@
         <v>45019</v>
       </c>
       <c r="B4" t="n">
-        <v>225.0001095074794</v>
+        <v>241.2070598871642</v>
       </c>
       <c r="C4" t="n">
-        <v>159.0056693284037</v>
+        <v>178.1516461724212</v>
       </c>
       <c r="D4" t="n">
-        <v>285.8029744141031</v>
+        <v>305.6410165843922</v>
       </c>
       <c r="E4" t="n">
         <v>269</v>
@@ -536,13 +536,13 @@
         <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>262.7315569549783</v>
+        <v>257.6274377332547</v>
       </c>
       <c r="C5" t="n">
-        <v>194.1339238717235</v>
+        <v>191.9373400083815</v>
       </c>
       <c r="D5" t="n">
-        <v>326.867447108323</v>
+        <v>318.8317037220453</v>
       </c>
       <c r="E5" t="n">
         <v>199</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>220.2915922495201</v>
+        <v>232.0056594526628</v>
       </c>
       <c r="C6" t="n">
-        <v>159.177976730407</v>
+        <v>165.9608772511749</v>
       </c>
       <c r="D6" t="n">
-        <v>287.4588367667216</v>
+        <v>296.8240967311175</v>
       </c>
       <c r="E6" t="n">
         <v>203</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>212.4978950628885</v>
+        <v>222.6608351634346</v>
       </c>
       <c r="C7" t="n">
-        <v>154.3600164111174</v>
+        <v>156.6066170310181</v>
       </c>
       <c r="D7" t="n">
-        <v>277.3645920761315</v>
+        <v>286.9227813600509</v>
       </c>
       <c r="E7" t="n">
         <v>138</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4061.711351905645</v>
+        <v>3437.176455166655</v>
       </c>
       <c r="C2" t="n">
-        <v>63.73155695497832</v>
+        <v>58.62743773325468</v>
       </c>
       <c r="D2" t="n">
-        <v>63.73155695497832</v>
+        <v>58.62743773325468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3202590801757704</v>
+        <v>0.2946102398656014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3202590801757704</v>
+        <v>0.2946102398656014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2760545862417307</v>
+        <v>0.2567845595275101</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>9142.521683620353</v>
+        <v>9010.06713356438</v>
       </c>
       <c r="C3" t="n">
-        <v>95.61653457232359</v>
+        <v>94.92137342856128</v>
       </c>
       <c r="D3" t="n">
-        <v>95.61653457232359</v>
+        <v>94.92137342856128</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7649322765785886</v>
+        <v>0.7593709874284903</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7649322765785886</v>
+        <v>0.7593709874284903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5533099548645287</v>
+        <v>0.5503942680329202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>7606.136711427268</v>
+        <v>11508.69196785359</v>
       </c>
       <c r="C4" t="n">
-        <v>87.21316822262145</v>
+        <v>107.2785718018915</v>
       </c>
       <c r="D4" t="n">
-        <v>87.21316822262145</v>
+        <v>107.2785718018915</v>
       </c>
       <c r="E4" t="n">
-        <v>1.677176311973489</v>
+        <v>2.063049457728683</v>
       </c>
       <c r="F4" t="n">
-        <v>1.677176311973489</v>
+        <v>2.063049457728683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9122088089778715</v>
+        <v>1.01551776772216</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2594.975298226206</v>
+        <v>2927.077603656587</v>
       </c>
       <c r="C5" t="n">
-        <v>50.94090005316166</v>
+        <v>54.10247317504614</v>
       </c>
       <c r="D5" t="n">
-        <v>45.26312593497642</v>
+        <v>47.15314490964438</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2628628142754306</v>
+        <v>0.286562938228726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1635683661431992</v>
+        <v>0.1428850219342995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2283117728162535</v>
+        <v>0.2372604952440179</v>
       </c>
       <c r="H5" t="n">
         <v>0.6666666666666667</v>

--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45016</v>
+        <v>45005</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9213734285613</v>
+        <v>256.1380163193726</v>
       </c>
       <c r="C2" t="n">
-        <v>154.1425710803382</v>
+        <v>203.2096980770597</v>
       </c>
       <c r="D2" t="n">
-        <v>278.9983017093778</v>
+        <v>312.5381412699332</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="B3" t="n">
-        <v>159.2785718018915</v>
+        <v>218.770794910471</v>
       </c>
       <c r="C3" t="n">
-        <v>101.9928850147078</v>
+        <v>160.8256125929252</v>
       </c>
       <c r="D3" t="n">
-        <v>219.0088677601562</v>
+        <v>274.0686534349068</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45012</v>
@@ -513,19 +513,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>241.2070598871642</v>
+        <v>136.3138050834677</v>
       </c>
       <c r="C4" t="n">
-        <v>178.1516461724212</v>
+        <v>79.78905535318187</v>
       </c>
       <c r="D4" t="n">
-        <v>305.6410165843922</v>
+        <v>192.9512164792482</v>
       </c>
       <c r="E4" t="n">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45012</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45027</v>
+        <v>45019</v>
       </c>
       <c r="B5" t="n">
-        <v>257.6274377332547</v>
+        <v>240.0601026217371</v>
       </c>
       <c r="C5" t="n">
-        <v>191.9373400083815</v>
+        <v>182.4180258689206</v>
       </c>
       <c r="D5" t="n">
-        <v>318.8317037220453</v>
+        <v>296.4956009550509</v>
       </c>
       <c r="E5" t="n">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B6" t="n">
-        <v>232.0056594526628</v>
+        <v>259.7004198755672</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9608772511749</v>
+        <v>198.2151944786455</v>
       </c>
       <c r="D6" t="n">
-        <v>296.8240967311175</v>
+        <v>319.0724281242971</v>
       </c>
       <c r="E6" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45026</v>
@@ -573,21 +573,41 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B7" t="n">
+        <v>233.4660348233581</v>
+      </c>
+      <c r="C7" t="n">
+        <v>182.2847134056277</v>
+      </c>
+      <c r="D7" t="n">
+        <v>294.0977933179036</v>
+      </c>
+      <c r="E7" t="n">
+        <v>203</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B7" t="n">
-        <v>222.6608351634346</v>
-      </c>
-      <c r="C7" t="n">
-        <v>156.6066170310181</v>
-      </c>
-      <c r="D7" t="n">
-        <v>286.9227813600509</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B8" t="n">
+        <v>224.1323248774353</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164.1538883373255</v>
+      </c>
+      <c r="D8" t="n">
+        <v>286.4738920887709</v>
+      </c>
+      <c r="E8" t="n">
         <v>138</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -657,22 +677,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3437.176455166655</v>
+        <v>3684.540973070154</v>
       </c>
       <c r="C2" t="n">
-        <v>58.62743773325468</v>
+        <v>60.70041987556721</v>
       </c>
       <c r="D2" t="n">
-        <v>58.62743773325468</v>
+        <v>60.70041987556721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2946102398656014</v>
+        <v>0.3050272355556141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2946102398656014</v>
+        <v>0.3050272355556141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2567845595275101</v>
+        <v>0.2646625869321574</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +703,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>9010.06713356438</v>
+        <v>8792.961978141611</v>
       </c>
       <c r="C3" t="n">
-        <v>94.92137342856128</v>
+        <v>93.77079491047098</v>
       </c>
       <c r="D3" t="n">
-        <v>94.92137342856128</v>
+        <v>93.77079491047098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7593709874284903</v>
+        <v>0.7501663592837678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7593709874284903</v>
+        <v>0.7501663592837678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5503942680329202</v>
+        <v>0.5455425318191555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -709,22 +729,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>11508.69196785359</v>
+        <v>7108.817727652981</v>
       </c>
       <c r="C4" t="n">
-        <v>107.2785718018915</v>
+        <v>84.31380508346768</v>
       </c>
       <c r="D4" t="n">
-        <v>107.2785718018915</v>
+        <v>84.31380508346768</v>
       </c>
       <c r="E4" t="n">
-        <v>2.063049457728683</v>
+        <v>1.621419328528225</v>
       </c>
       <c r="F4" t="n">
-        <v>2.063049457728683</v>
+        <v>1.621419328528225</v>
       </c>
       <c r="G4" t="n">
-        <v>1.01551776772216</v>
+        <v>0.8954606917543477</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -735,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2927.077603656587</v>
+        <v>3633.410939511834</v>
       </c>
       <c r="C5" t="n">
-        <v>54.10247317504614</v>
+        <v>60.27778147470122</v>
       </c>
       <c r="D5" t="n">
-        <v>47.15314490964438</v>
+        <v>54.66906834960724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.286562938228726</v>
+        <v>0.3203677059975235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1428850219342995</v>
+        <v>0.2748701403201592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2372604952440179</v>
+        <v>0.2655239916487255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
